--- a/similarities/split_global/harmonic_similarity_timestamps_56.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -531,663 +541,665 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'A:7']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:7/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:27.290000', '0:00:33.090000')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:04:43.980000', '0:04:52.660000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=27.29']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:00', '0:00:15.865600')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:00:29.340000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+          <t>('0:01:03.700000', '0:01:06.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:00:16.540000', '0:00:34.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:27.280000', '0:01:32.660000'), ('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:24.143514', '0:00:35.544512')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:36.760000', '0:01:43.240000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:07.960000', '0:00:15.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=24.143514</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:12.420000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:32.970680')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb', 'F:min7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:23.820000')]</t>
+          <t>('0:00:06.880000', '0:00:21.120000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:08.940000', '0:00:13.080000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=6.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.94</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:09.408834', '0:00:16.560579')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:11.860000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:06.940000', '0:00:17.120000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:27', '0:00:49.860000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:01:11.560000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:00:59.260000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=71.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['Eb:maj6', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:00:24.800000', '0:00:29.240000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:08.260000', '0:01:13.280000')]</t>
+          <t>('0:00:15.700000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=24.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=68.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=15.7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
